--- a/SmartSSO/Content/Template/库存模板.xlsx
+++ b/SmartSSO/Content/Template/库存模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewave\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\inquiry\sso\SmartSSO\Content\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>编号</t>
   </si>
@@ -43,9 +35,6 @@
     <t>线径</t>
   </si>
   <si>
-    <t>材料</t>
-  </si>
-  <si>
     <t>材料物性</t>
   </si>
   <si>
@@ -61,11 +50,7 @@
     <t>库存数</t>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
+    <t>材质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,15 +80,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -163,18 +139,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,17 +162,13 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 11" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -528,100 +497,38 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="www.baidu.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>